--- a/fhir/indisa/StructureDefinition-profileCompositionKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-profileCompositionKlinic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4624" uniqueCount="570">
   <si>
     <t>Path</t>
   </si>
@@ -329,10 +329,16 @@
     <t>binaryEmbedded</t>
   </si>
   <si>
+    <t>Contained type Binary resource.</t>
+  </si>
+  <si>
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
     <t>mediaReferenceURL</t>
+  </si>
+  <si>
+    <t>Contained type Media resource.</t>
   </si>
   <si>
     <t>Composition.extension</t>
@@ -1081,517 +1087,521 @@
     <t>Composition.author</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the composition</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the content.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.author.assignedAuthor</t>
+  </si>
+  <si>
+    <t>DocumentReference.agent</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Composition.title</t>
+  </si>
+  <si>
+    <t>Human Readable name/title</t>
+  </si>
+  <si>
+    <t>Official human-readable label for the composition.</t>
+  </si>
+  <si>
+    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
+  </si>
+  <si>
+    <t>./title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>DocumentReference.description, DocumentReference.content.attachment.title</t>
+  </si>
+  <si>
+    <t>Composition.confidentiality</t>
+  </si>
+  <si>
+    <t>As defined by affinity domain</t>
+  </si>
+  <si>
+    <t>The code specifying the level of confidentiality of the Composition.</t>
+  </si>
+  <si>
+    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).  This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
+  </si>
+  <si>
+    <t>Codes specifying the level of confidentiality of the composition.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
+  </si>
+  <si>
+    <t>.confidentialityCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.securityLabel</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Attests to accuracy of composition</t>
+  </si>
+  <si>
+    <t>A participant who has attested to the accuracy of the composition/document.</t>
+  </si>
+  <si>
+    <t>Only list each attester once.</t>
+  </si>
+  <si>
+    <t>Identifies responsibility for the accuracy of the composition content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>DocumentReference.authenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.id</t>
+  </si>
+  <si>
+    <t>Composition.attester.extension</t>
+  </si>
+  <si>
+    <t>Composition.attester.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.attester.mode</t>
+  </si>
+  <si>
+    <t>personal | professional | legal | official</t>
+  </si>
+  <si>
+    <t>The type of attestation the authenticator offers.</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority of the attestation.</t>
+  </si>
+  <si>
+    <t>The way in which a person authenticated a composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
+  </si>
+  <si>
+    <t>unique(./modeCode)</t>
+  </si>
+  <si>
+    <t>implied by .authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.time</t>
+  </si>
+  <si>
+    <t>When the composition was attested</t>
+  </si>
+  <si>
+    <t>When the composition was attested by the party.</t>
+  </si>
+  <si>
+    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
+  </si>
+  <si>
+    <t>./time[type="TS" and isNormalDatatype()]</t>
+  </si>
+  <si>
+    <t>.authenticator.time</t>
+  </si>
+  <si>
+    <t>Composition.attester.party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who attested the composition</t>
+  </si>
+  <si>
+    <t>Who attested the composition in the specified way.</t>
+  </si>
+  <si>
+    <t>Identifies who has taken on the responsibility for accuracy of the composition content.</t>
+  </si>
+  <si>
+    <t>./role[classCode="ASSIGNED" and isNormalRole]/player[determinerCode="INST" and classCode=("DEV", "PSN") and isNormalEntity()] or ./role[classCode="ASSIGNED" and isNormalRole and not(player)]/scoper[determinerCode="INST" and classCode="ORG" and isNormalEntity()]</t>
+  </si>
+  <si>
+    <t>.authenticator.assignedEnttty</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>Composition.attester.party.id</t>
+  </si>
+  <si>
+    <t>Composition.attester.party.extension</t>
+  </si>
+  <si>
+    <t>Composition.attester.party.reference</t>
+  </si>
+  <si>
+    <t>Composition.attester.party.type</t>
+  </si>
+  <si>
+    <t>Composition.attester.party.identifier</t>
+  </si>
+  <si>
+    <t>Composition.attester.party.display</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t>Organization which maintains the composition</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
+  </si>
+  <si>
+    <t>This is useful when documents are derived from a composition - provides guidance for how to get the latest version of the document. This is optional because this is sometimes not known by the authoring system, and can be inferred by context. However, it is important that this information be known when working with a derived document, so providing a custodian is encouraged.</t>
+  </si>
+  <si>
+    <t>Identifies where to go to find the current version, where to report issues, etc.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>.custodian.assignedCustodian</t>
+  </si>
+  <si>
+    <t>DocumentReference.custodian</t>
+  </si>
+  <si>
+    <t>Composition.custodian.id</t>
+  </si>
+  <si>
+    <t>Composition.custodian.extension</t>
+  </si>
+  <si>
+    <t>Composition.custodian.reference</t>
+  </si>
+  <si>
+    <t>Composition.custodian.type</t>
+  </si>
+  <si>
+    <t>Composition.custodian.identifier</t>
+  </si>
+  <si>
+    <t>Composition.custodian.display</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>Relationships to other compositions/documents</t>
+  </si>
+  <si>
+    <t>Relationships that this composition has with other compositions or documents that already exist.</t>
+  </si>
+  <si>
+    <t>A document is a version specific composition.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>.relatedDocument</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.id</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.extension</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.code</t>
+  </si>
+  <si>
+    <t>replaces | transforms | signs | appends</t>
+  </si>
+  <si>
+    <t>The type of relationship that this composition has with anther composition or document.</t>
+  </si>
+  <si>
+    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
+  </si>
+  <si>
+    <t>The type of relationship between documents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
+  </si>
+  <si>
+    <t>.outboundRelationship.typeCode</t>
+  </si>
+  <si>
+    <t>.relatedDocument.typeCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.code</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.target[x]</t>
+  </si>
+  <si>
+    <t>Identifier
+Reference(Composition)</t>
+  </si>
+  <si>
+    <t>Target of the relationship</t>
+  </si>
+  <si>
+    <t>The target composition/document of this relationship.</t>
+  </si>
+  <si>
+    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
+  </si>
+  <si>
+    <t>.relatedDocument.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.relatesTo.target</t>
+  </si>
+  <si>
+    <t>Composition.event</t>
+  </si>
+  <si>
+    <t>The clinical service(s) being documented</t>
+  </si>
+  <si>
+    <t>The clinical service, such as a colonoscopy or an appendectomy, being documented.</t>
+  </si>
+  <si>
+    <t>The event needs to be consistent with the type element, though can provide further information if desired.</t>
+  </si>
+  <si>
+    <t>Provides context for the composition and creates a linkage between a resource describing an event and the composition created describing the event.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode="SUBJ"].target[classCode&lt;'ACT']</t>
+  </si>
+  <si>
+    <t>.documentationOf.serviceEvent</t>
+  </si>
+  <si>
+    <t>DocumentReference.event</t>
+  </si>
+  <si>
+    <t>Composition.event.id</t>
+  </si>
+  <si>
+    <t>Composition.event.extension</t>
+  </si>
+  <si>
+    <t>Composition.event.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.event.code</t>
+  </si>
+  <si>
+    <t>Code(s) that apply to the event being documented</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
+  </si>
+  <si>
+    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts being documented.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+  </si>
+  <si>
+    <t>DocumentReference.event.code</t>
+  </si>
+  <si>
+    <t>Composition.event.period</t>
+  </si>
+  <si>
+    <t>The period covered by the documentation</t>
+  </si>
+  <si>
+    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
+  </si>
+  <si>
+    <t>DocumentReference.event.period</t>
+  </si>
+  <si>
+    <t>Composition.event.detail</t>
+  </si>
+  <si>
+    <t>The event(s) being documented</t>
+  </si>
+  <si>
+    <t>The description and/or reference of the event(s) being documented. For example, this could be used to document such a colonoscopy or an appendectomy.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].target</t>
+  </si>
+  <si>
+    <t>Composition.section</t>
+  </si>
+  <si>
+    <t>Composition is broken into sections</t>
+  </si>
+  <si>
+    <t>The root of the sections that make up the composition.</t>
+  </si>
+  <si>
+    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
+  </si>
+  <si>
+    <t>.component.structuredBody.component.section</t>
+  </si>
+  <si>
+    <t>Composition.section.id</t>
+  </si>
+  <si>
+    <t>Composition.section.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section.title</t>
+  </si>
+  <si>
+    <t>header
+labelcaption</t>
+  </si>
+  <si>
+    <t>Label for section (e.g. for ToC)</t>
+  </si>
+  <si>
+    <t>The label for this particular section.  This will be part of the rendered content for the document, and is often used to build a table of contents.</t>
+  </si>
+  <si>
+    <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section. Most Implementation Guides will make section title to be a required element.</t>
+  </si>
+  <si>
+    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized.</t>
+  </si>
+  <si>
+    <t>Composition.section.code</t>
+  </si>
+  <si>
+    <t>Classification of section (recommended)</t>
+  </si>
+  <si>
+    <t>A code identifying the kind of content contained within the section. This must be consistent with the section title.</t>
+  </si>
+  <si>
+    <t>The code identifies the section for an automated processor of the document. This is particularly relevant when using profiles to control the structure of the document.   
+If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
+  </si>
+  <si>
+    <t>Provides computable standardized labels to topics within the document.</t>
+  </si>
+  <si>
+    <t>Classification of a section of a composition/document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+  </si>
+  <si>
+    <t>Composition.section.code.id</t>
+  </si>
+  <si>
+    <t>Composition.section.code.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding.id</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding.system</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding.version</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding.code</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding.display</t>
+  </si>
+  <si>
+    <t>Composition.section.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Composition.section.code.text</t>
+  </si>
+  <si>
+    <t>Composition.section.author</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
 </t>
-  </si>
-  <si>
-    <t>Who and/or what authored the composition</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the content.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.author.assignedAuthor</t>
-  </si>
-  <si>
-    <t>DocumentReference.agent</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Composition.title</t>
-  </si>
-  <si>
-    <t>Human Readable name/title</t>
-  </si>
-  <si>
-    <t>Official human-readable label for the composition.</t>
-  </si>
-  <si>
-    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>./title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>DocumentReference.description, DocumentReference.content.attachment.title</t>
-  </si>
-  <si>
-    <t>Composition.confidentiality</t>
-  </si>
-  <si>
-    <t>As defined by affinity domain</t>
-  </si>
-  <si>
-    <t>The code specifying the level of confidentiality of the Composition.</t>
-  </si>
-  <si>
-    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).  This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
-  </si>
-  <si>
-    <t>Codes specifying the level of confidentiality of the composition.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
-  </si>
-  <si>
-    <t>.confidentialityCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.securityLabel</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Attests to accuracy of composition</t>
-  </si>
-  <si>
-    <t>A participant who has attested to the accuracy of the composition/document.</t>
-  </si>
-  <si>
-    <t>Only list each attester once.</t>
-  </si>
-  <si>
-    <t>Identifies responsibility for the accuracy of the composition content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>DocumentReference.authenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.id</t>
-  </si>
-  <si>
-    <t>Composition.attester.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.attester.mode</t>
-  </si>
-  <si>
-    <t>personal | professional | legal | official</t>
-  </si>
-  <si>
-    <t>The type of attestation the authenticator offers.</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority of the attestation.</t>
-  </si>
-  <si>
-    <t>The way in which a person authenticated a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>unique(./modeCode)</t>
-  </si>
-  <si>
-    <t>implied by .authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.time</t>
-  </si>
-  <si>
-    <t>When the composition was attested</t>
-  </si>
-  <si>
-    <t>When the composition was attested by the party.</t>
-  </si>
-  <si>
-    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
-  </si>
-  <si>
-    <t>./time[type="TS" and isNormalDatatype()]</t>
-  </si>
-  <si>
-    <t>.authenticator.time</t>
-  </si>
-  <si>
-    <t>Composition.attester.party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who attested the composition</t>
-  </si>
-  <si>
-    <t>Who attested the composition in the specified way.</t>
-  </si>
-  <si>
-    <t>Identifies who has taken on the responsibility for accuracy of the composition content.</t>
-  </si>
-  <si>
-    <t>./role[classCode="ASSIGNED" and isNormalRole]/player[determinerCode="INST" and classCode=("DEV", "PSN") and isNormalEntity()] or ./role[classCode="ASSIGNED" and isNormalRole and not(player)]/scoper[determinerCode="INST" and classCode="ORG" and isNormalEntity()]</t>
-  </si>
-  <si>
-    <t>.authenticator.assignedEnttty</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>Composition.attester.party.id</t>
-  </si>
-  <si>
-    <t>Composition.attester.party.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester.party.reference</t>
-  </si>
-  <si>
-    <t>Composition.attester.party.type</t>
-  </si>
-  <si>
-    <t>Composition.attester.party.identifier</t>
-  </si>
-  <si>
-    <t>Composition.attester.party.display</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t>Organization which maintains the composition</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
-  </si>
-  <si>
-    <t>This is useful when documents are derived from a composition - provides guidance for how to get the latest version of the document. This is optional because this is sometimes not known by the authoring system, and can be inferred by context. However, it is important that this information be known when working with a derived document, so providing a custodian is encouraged.</t>
-  </si>
-  <si>
-    <t>Identifies where to go to find the current version, where to report issues, etc.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>.custodian.assignedCustodian</t>
-  </si>
-  <si>
-    <t>DocumentReference.custodian</t>
-  </si>
-  <si>
-    <t>Composition.custodian.id</t>
-  </si>
-  <si>
-    <t>Composition.custodian.extension</t>
-  </si>
-  <si>
-    <t>Composition.custodian.reference</t>
-  </si>
-  <si>
-    <t>Composition.custodian.type</t>
-  </si>
-  <si>
-    <t>Composition.custodian.identifier</t>
-  </si>
-  <si>
-    <t>Composition.custodian.display</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>Relationships to other compositions/documents</t>
-  </si>
-  <si>
-    <t>Relationships that this composition has with other compositions or documents that already exist.</t>
-  </si>
-  <si>
-    <t>A document is a version specific composition.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>.relatedDocument</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.id</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.extension</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.code</t>
-  </si>
-  <si>
-    <t>replaces | transforms | signs | appends</t>
-  </si>
-  <si>
-    <t>The type of relationship that this composition has with anther composition or document.</t>
-  </si>
-  <si>
-    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
-  </si>
-  <si>
-    <t>The type of relationship between documents.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
-  </si>
-  <si>
-    <t>.outboundRelationship.typeCode</t>
-  </si>
-  <si>
-    <t>.relatedDocument.typeCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.code</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.target[x]</t>
-  </si>
-  <si>
-    <t>Identifier
-Reference(Composition)</t>
-  </si>
-  <si>
-    <t>Target of the relationship</t>
-  </si>
-  <si>
-    <t>The target composition/document of this relationship.</t>
-  </si>
-  <si>
-    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
-  </si>
-  <si>
-    <t>.relatedDocument.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.relatesTo.target</t>
-  </si>
-  <si>
-    <t>Composition.event</t>
-  </si>
-  <si>
-    <t>The clinical service(s) being documented</t>
-  </si>
-  <si>
-    <t>The clinical service, such as a colonoscopy or an appendectomy, being documented.</t>
-  </si>
-  <si>
-    <t>The event needs to be consistent with the type element, though can provide further information if desired.</t>
-  </si>
-  <si>
-    <t>Provides context for the composition and creates a linkage between a resource describing an event and the composition created describing the event.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode="SUBJ"].target[classCode&lt;'ACT']</t>
-  </si>
-  <si>
-    <t>.documentationOf.serviceEvent</t>
-  </si>
-  <si>
-    <t>DocumentReference.event</t>
-  </si>
-  <si>
-    <t>Composition.event.id</t>
-  </si>
-  <si>
-    <t>Composition.event.extension</t>
-  </si>
-  <si>
-    <t>Composition.event.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.event.code</t>
-  </si>
-  <si>
-    <t>Code(s) that apply to the event being documented</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
-  </si>
-  <si>
-    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts being documented.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.event.code</t>
-  </si>
-  <si>
-    <t>Composition.event.period</t>
-  </si>
-  <si>
-    <t>The period covered by the documentation</t>
-  </si>
-  <si>
-    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
-  </si>
-  <si>
-    <t>DocumentReference.event.period</t>
-  </si>
-  <si>
-    <t>Composition.event.detail</t>
-  </si>
-  <si>
-    <t>The event(s) being documented</t>
-  </si>
-  <si>
-    <t>The description and/or reference of the event(s) being documented. For example, this could be used to document such a colonoscopy or an appendectomy.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].target</t>
-  </si>
-  <si>
-    <t>Composition.section</t>
-  </si>
-  <si>
-    <t>Composition is broken into sections</t>
-  </si>
-  <si>
-    <t>The root of the sections that make up the composition.</t>
-  </si>
-  <si>
-    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
-cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
-  </si>
-  <si>
-    <t>.component.structuredBody.component.section</t>
-  </si>
-  <si>
-    <t>Composition.section.id</t>
-  </si>
-  <si>
-    <t>Composition.section.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.section.title</t>
-  </si>
-  <si>
-    <t>header
-labelcaption</t>
-  </si>
-  <si>
-    <t>Label for section (e.g. for ToC)</t>
-  </si>
-  <si>
-    <t>The label for this particular section.  This will be part of the rendered content for the document, and is often used to build a table of contents.</t>
-  </si>
-  <si>
-    <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section. Most Implementation Guides will make section title to be a required element.</t>
-  </si>
-  <si>
-    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized.</t>
-  </si>
-  <si>
-    <t>Composition.section.code</t>
-  </si>
-  <si>
-    <t>Classification of section (recommended)</t>
-  </si>
-  <si>
-    <t>A code identifying the kind of content contained within the section. This must be consistent with the section title.</t>
-  </si>
-  <si>
-    <t>The code identifies the section for an automated processor of the document. This is particularly relevant when using profiles to control the structure of the document.   
-If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
-  </si>
-  <si>
-    <t>Provides computable standardized labels to topics within the document.</t>
-  </si>
-  <si>
-    <t>Classification of a section of a composition/document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
-  </si>
-  <si>
-    <t>Composition.section.code.id</t>
-  </si>
-  <si>
-    <t>Composition.section.code.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.id</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.system</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.version</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.code</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.display</t>
-  </si>
-  <si>
-    <t>Composition.section.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Composition.section.code.text</t>
-  </si>
-  <si>
-    <t>Composition.section.author</t>
   </si>
   <si>
     <t>Who and/or what authored the section</t>
@@ -1916,46 +1926,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="57.1953125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="70.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2904,10 +2914,10 @@
         <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
         <v>94</v>
@@ -2995,7 +3005,7 @@
         <v>89</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>90</v>
@@ -3020,10 +3030,10 @@
         <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>94</v>
@@ -3108,11 +3118,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3131,16 +3141,16 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3190,7 +3200,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -3202,7 +3212,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
@@ -3222,11 +3232,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3245,19 +3255,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -3306,7 +3316,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3318,7 +3328,7 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>41</v>
@@ -3338,7 +3348,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3361,16 +3371,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3420,7 +3430,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3435,24 +3445,24 @@
         <v>65</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3478,10 +3488,10 @@
         <v>55</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3532,7 +3542,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3550,7 +3560,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -3564,11 +3574,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3587,16 +3597,16 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3634,10 +3644,10 @@
         <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>41</v>
@@ -3646,7 +3656,7 @@
         <v>96</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3658,13 +3668,13 @@
         <v>41</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3678,7 +3688,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3704,16 +3714,16 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -3738,13 +3748,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3762,7 +3772,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3780,7 +3790,7 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3794,7 +3804,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3817,19 +3827,19 @@
         <v>54</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3854,13 +3864,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3878,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3896,7 +3906,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3910,7 +3920,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3936,16 +3946,16 @@
         <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3958,7 +3968,7 @@
         <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>41</v>
@@ -3994,7 +4004,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -4012,7 +4022,7 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -4026,7 +4036,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4052,13 +4062,13 @@
         <v>55</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4072,7 +4082,7 @@
         <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>41</v>
@@ -4108,7 +4118,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -4126,7 +4136,7 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -4140,7 +4150,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4163,13 +4173,13 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4220,7 +4230,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4238,7 +4248,7 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -4252,7 +4262,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4275,16 +4285,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4334,7 +4344,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4352,7 +4362,7 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -4366,7 +4376,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4392,16 +4402,16 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -4426,13 +4436,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -4450,7 +4460,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>53</v>
@@ -4465,24 +4475,24 @@
         <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4505,19 +4515,19 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4545,10 +4555,10 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -4566,7 +4576,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>53</v>
@@ -4581,24 +4591,24 @@
         <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4624,10 +4634,10 @@
         <v>55</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4678,7 +4688,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4696,7 +4706,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4710,11 +4720,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4733,16 +4743,16 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4780,10 +4790,10 @@
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
@@ -4792,7 +4802,7 @@
         <v>96</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4804,13 +4814,13 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4824,7 +4834,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4847,19 +4857,19 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4908,7 +4918,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4926,7 +4936,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4940,7 +4950,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4966,10 +4976,10 @@
         <v>55</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5020,7 +5030,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -5038,7 +5048,7 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -5052,11 +5062,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5075,16 +5085,16 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5122,10 +5132,10 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
@@ -5134,7 +5144,7 @@
         <v>96</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -5146,13 +5156,13 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>41</v>
@@ -5166,7 +5176,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5192,23 +5202,23 @@
         <v>67</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>41</v>
@@ -5250,7 +5260,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5268,7 +5278,7 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -5282,7 +5292,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5308,13 +5318,13 @@
         <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5364,7 +5374,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5382,7 +5392,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -5396,7 +5406,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5422,14 +5432,14 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5478,7 +5488,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5496,7 +5506,7 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5510,7 +5520,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5536,14 +5546,14 @@
         <v>55</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5592,7 +5602,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5610,7 +5620,7 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5624,7 +5634,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5647,19 +5657,19 @@
         <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5708,7 +5718,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5726,7 +5736,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5740,7 +5750,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5766,16 +5776,16 @@
         <v>55</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5824,7 +5834,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5842,7 +5852,7 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5856,7 +5866,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5879,19 +5889,19 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5916,13 +5926,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5940,7 +5950,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5955,24 +5965,24 @@
         <v>65</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5998,10 +6008,10 @@
         <v>55</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6052,7 +6062,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6070,7 +6080,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -6084,11 +6094,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6107,16 +6117,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6154,10 +6164,10 @@
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>41</v>
@@ -6166,7 +6176,7 @@
         <v>96</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6178,13 +6188,13 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
@@ -6198,7 +6208,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6221,19 +6231,19 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -6282,7 +6292,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6300,7 +6310,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -6314,7 +6324,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6340,10 +6350,10 @@
         <v>55</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6394,7 +6404,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6412,7 +6422,7 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -6426,11 +6436,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6449,16 +6459,16 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6496,10 +6506,10 @@
         <v>41</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>41</v>
@@ -6508,7 +6518,7 @@
         <v>96</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6520,13 +6530,13 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
@@ -6540,7 +6550,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6566,23 +6576,23 @@
         <v>67</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>41</v>
@@ -6624,7 +6634,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6642,7 +6652,7 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -6656,7 +6666,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6682,13 +6692,13 @@
         <v>55</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6738,7 +6748,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6756,7 +6766,7 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6770,7 +6780,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6796,14 +6806,14 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6852,7 +6862,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6870,7 +6880,7 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6884,7 +6894,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6910,14 +6920,14 @@
         <v>55</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6966,7 +6976,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6984,7 +6994,7 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6998,7 +7008,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7021,19 +7031,19 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -7082,7 +7092,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7100,7 +7110,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -7114,7 +7124,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7140,16 +7150,16 @@
         <v>55</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -7198,7 +7208,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7216,7 +7226,7 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -7230,7 +7240,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7253,19 +7263,19 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -7314,7 +7324,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7332,21 +7342,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7372,10 +7382,10 @@
         <v>55</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7426,7 +7436,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7444,7 +7454,7 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -7458,11 +7468,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7481,16 +7491,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7528,10 +7538,10 @@
         <v>41</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>41</v>
@@ -7540,7 +7550,7 @@
         <v>96</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7552,13 +7562,13 @@
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
@@ -7572,7 +7582,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7598,13 +7608,13 @@
         <v>55</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7654,7 +7664,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7663,7 +7673,7 @@
         <v>53</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>65</v>
@@ -7686,7 +7696,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7712,13 +7722,13 @@
         <v>67</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7744,13 +7754,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7768,7 +7778,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7800,7 +7810,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7823,16 +7833,16 @@
         <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7882,7 +7892,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7900,7 +7910,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
@@ -7914,7 +7924,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7940,13 +7950,13 @@
         <v>55</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7996,7 +8006,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -8028,7 +8038,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8051,17 +8061,17 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -8110,7 +8120,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8125,24 +8135,24 @@
         <v>65</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8168,10 +8178,10 @@
         <v>55</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8222,7 +8232,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8240,7 +8250,7 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
@@ -8254,11 +8264,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8277,16 +8287,16 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8324,10 +8334,10 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>41</v>
@@ -8336,7 +8346,7 @@
         <v>96</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8348,13 +8358,13 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -8368,7 +8378,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8394,13 +8404,13 @@
         <v>55</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8450,7 +8460,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8459,7 +8469,7 @@
         <v>53</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>65</v>
@@ -8482,7 +8492,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8508,13 +8518,13 @@
         <v>67</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8540,13 +8550,13 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -8564,7 +8574,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8596,7 +8606,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8619,16 +8629,16 @@
         <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8678,7 +8688,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8696,7 +8706,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
@@ -8710,7 +8720,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8736,13 +8746,13 @@
         <v>55</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8792,7 +8802,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8824,7 +8834,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8847,19 +8857,19 @@
         <v>54</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8908,7 +8918,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>53</v>
@@ -8923,24 +8933,24 @@
         <v>65</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8963,17 +8973,17 @@
         <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -9022,7 +9032,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>53</v>
@@ -9037,24 +9047,24 @@
         <v>65</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9080,13 +9090,13 @@
         <v>55</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9136,7 +9146,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>53</v>
@@ -9154,13 +9164,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -9168,7 +9178,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9194,13 +9204,13 @@
         <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9226,13 +9236,13 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>41</v>
@@ -9250,7 +9260,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9268,13 +9278,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9282,7 +9292,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9305,19 +9315,19 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9366,7 +9376,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9384,13 +9394,13 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9398,7 +9408,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9424,10 +9434,10 @@
         <v>55</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9478,7 +9488,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9496,7 +9506,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
@@ -9510,11 +9520,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9533,16 +9543,16 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9592,7 +9602,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9604,13 +9614,13 @@
         <v>41</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
@@ -9624,11 +9634,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9647,19 +9657,19 @@
         <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9708,7 +9718,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9720,7 +9730,7 @@
         <v>41</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>41</v>
@@ -9740,7 +9750,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9766,14 +9776,14 @@
         <v>73</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9798,13 +9808,13 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9822,7 +9832,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>53</v>
@@ -9840,10 +9850,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9854,7 +9864,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9877,17 +9887,17 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9936,7 +9946,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9954,10 +9964,10 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9968,7 +9978,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9991,17 +10001,17 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -10050,7 +10060,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10068,21 +10078,21 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10108,10 +10118,10 @@
         <v>55</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10162,7 +10172,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10180,7 +10190,7 @@
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>41</v>
@@ -10194,11 +10204,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10217,16 +10227,16 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10264,10 +10274,10 @@
         <v>41</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>41</v>
@@ -10276,7 +10286,7 @@
         <v>96</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10288,13 +10298,13 @@
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>41</v>
@@ -10308,7 +10318,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10334,13 +10344,13 @@
         <v>55</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10390,7 +10400,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10399,7 +10409,7 @@
         <v>53</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>65</v>
@@ -10422,7 +10432,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10448,13 +10458,13 @@
         <v>67</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10480,13 +10490,13 @@
         <v>41</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>41</v>
@@ -10504,7 +10514,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10536,7 +10546,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10559,16 +10569,16 @@
         <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10618,7 +10628,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10636,7 +10646,7 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>41</v>
@@ -10650,7 +10660,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10676,13 +10686,13 @@
         <v>55</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10732,7 +10742,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10764,7 +10774,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10787,19 +10797,19 @@
         <v>54</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>41</v>
@@ -10848,7 +10858,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10866,13 +10876,13 @@
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10880,7 +10890,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10906,10 +10916,10 @@
         <v>55</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10960,7 +10970,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10978,7 +10988,7 @@
         <v>41</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>41</v>
@@ -10992,11 +11002,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11015,16 +11025,16 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11062,10 +11072,10 @@
         <v>41</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>41</v>
@@ -11074,7 +11084,7 @@
         <v>96</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11086,13 +11096,13 @@
         <v>41</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
@@ -11106,7 +11116,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11132,13 +11142,13 @@
         <v>55</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11188,7 +11198,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11197,7 +11207,7 @@
         <v>53</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>65</v>
@@ -11220,7 +11230,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11246,13 +11256,13 @@
         <v>67</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11278,13 +11288,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11302,7 +11312,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11334,7 +11344,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11357,16 +11367,16 @@
         <v>54</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11416,7 +11426,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11434,7 +11444,7 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11448,7 +11458,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11474,13 +11484,13 @@
         <v>55</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11530,7 +11540,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11562,7 +11572,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11585,16 +11595,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11644,7 +11654,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11662,13 +11672,13 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>41</v>
@@ -11676,7 +11686,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11702,10 +11712,10 @@
         <v>55</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11756,7 +11766,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11774,7 +11784,7 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>41</v>
@@ -11788,11 +11798,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11811,16 +11821,16 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11870,7 +11880,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11882,13 +11892,13 @@
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -11902,11 +11912,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11925,19 +11935,19 @@
         <v>54</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>41</v>
@@ -11986,7 +11996,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11998,7 +12008,7 @@
         <v>41</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>41</v>
@@ -12018,7 +12028,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12044,13 +12054,13 @@
         <v>73</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12076,13 +12086,13 @@
         <v>41</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>41</v>
@@ -12100,7 +12110,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>53</v>
@@ -12118,13 +12128,13 @@
         <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>41</v>
@@ -12132,7 +12142,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12155,13 +12165,13 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12212,7 +12222,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>53</v>
@@ -12230,13 +12240,13 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>41</v>
@@ -12244,7 +12254,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12267,19 +12277,19 @@
         <v>54</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>41</v>
@@ -12328,7 +12338,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12346,13 +12356,13 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>41</v>
@@ -12360,7 +12370,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12386,10 +12396,10 @@
         <v>55</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12440,7 +12450,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12458,7 +12468,7 @@
         <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>41</v>
@@ -12472,11 +12482,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12495,16 +12505,16 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12554,7 +12564,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12566,13 +12576,13 @@
         <v>41</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12586,11 +12596,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12609,19 +12619,19 @@
         <v>54</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12670,7 +12680,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12682,7 +12692,7 @@
         <v>41</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>41</v>
@@ -12702,7 +12712,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12725,16 +12735,16 @@
         <v>54</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12760,13 +12770,13 @@
         <v>41</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>41</v>
@@ -12784,7 +12794,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12802,13 +12812,13 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>41</v>
@@ -12816,7 +12826,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12839,13 +12849,13 @@
         <v>54</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12896,7 +12906,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12914,13 +12924,13 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>41</v>
@@ -12928,7 +12938,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12951,13 +12961,13 @@
         <v>54</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13008,7 +13018,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13026,10 +13036,10 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>41</v>
@@ -13040,7 +13050,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13063,13 +13073,13 @@
         <v>41</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13120,7 +13130,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13132,16 +13142,16 @@
         <v>41</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>41</v>
@@ -13152,7 +13162,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13178,10 +13188,10 @@
         <v>55</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13232,7 +13242,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13250,7 +13260,7 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>41</v>
@@ -13264,11 +13274,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -13287,16 +13297,16 @@
         <v>41</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -13346,7 +13356,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13358,13 +13368,13 @@
         <v>41</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>41</v>
@@ -13378,11 +13388,11 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13401,19 +13411,19 @@
         <v>54</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>41</v>
@@ -13462,7 +13472,7 @@
         <v>41</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13474,7 +13484,7 @@
         <v>41</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>41</v>
@@ -13494,11 +13504,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -13520,16 +13530,16 @@
         <v>55</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>41</v>
@@ -13578,7 +13588,7 @@
         <v>41</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13596,10 +13606,10 @@
         <v>41</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>41</v>
@@ -13610,7 +13620,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13633,19 +13643,19 @@
         <v>41</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>41</v>
@@ -13670,13 +13680,13 @@
         <v>41</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>41</v>
@@ -13694,7 +13704,7 @@
         <v>41</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13712,10 +13722,10 @@
         <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>41</v>
@@ -13726,7 +13736,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13752,10 +13762,10 @@
         <v>55</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13806,7 +13816,7 @@
         <v>41</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -13824,7 +13834,7 @@
         <v>41</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>41</v>
@@ -13838,11 +13848,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13861,16 +13871,16 @@
         <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13908,10 +13918,10 @@
         <v>41</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>41</v>
@@ -13920,7 +13930,7 @@
         <v>96</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -13932,13 +13942,13 @@
         <v>41</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -13952,7 +13962,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13975,19 +13985,19 @@
         <v>54</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>41</v>
@@ -14036,7 +14046,7 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14054,7 +14064,7 @@
         <v>41</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -14068,7 +14078,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14094,10 +14104,10 @@
         <v>55</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14148,7 +14158,7 @@
         <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14166,7 +14176,7 @@
         <v>41</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>41</v>
@@ -14180,11 +14190,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14203,16 +14213,16 @@
         <v>41</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14250,10 +14260,10 @@
         <v>41</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>41</v>
@@ -14262,7 +14272,7 @@
         <v>96</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14274,13 +14284,13 @@
         <v>41</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -14294,7 +14304,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14320,23 +14330,23 @@
         <v>67</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R109" t="s" s="2">
         <v>41</v>
@@ -14378,7 +14388,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14396,7 +14406,7 @@
         <v>41</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>41</v>
@@ -14410,7 +14420,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14436,13 +14446,13 @@
         <v>55</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -14492,7 +14502,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14510,7 +14520,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14524,7 +14534,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14550,14 +14560,14 @@
         <v>73</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
@@ -14606,7 +14616,7 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14624,7 +14634,7 @@
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14638,7 +14648,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14664,14 +14674,14 @@
         <v>55</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
@@ -14720,7 +14730,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14738,7 +14748,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14752,7 +14762,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14775,19 +14785,19 @@
         <v>54</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>41</v>
@@ -14836,7 +14846,7 @@
         <v>41</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -14854,7 +14864,7 @@
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>41</v>
@@ -14868,7 +14878,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14894,16 +14904,16 @@
         <v>55</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>41</v>
@@ -14952,7 +14962,7 @@
         <v>41</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -14970,7 +14980,7 @@
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>41</v>
@@ -14984,7 +14994,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15007,17 +15017,17 @@
         <v>41</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>344</v>
+        <v>514</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>41</v>
@@ -15066,7 +15076,7 @@
         <v>41</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15084,21 +15094,21 @@
         <v>41</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15121,16 +15131,16 @@
         <v>41</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15180,7 +15190,7 @@
         <v>41</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15201,7 +15211,7 @@
         <v>41</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>41</v>
@@ -15212,7 +15222,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15238,13 +15248,13 @@
         <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15294,7 +15304,7 @@
         <v>41</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -15303,7 +15313,7 @@
         <v>53</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>65</v>
@@ -15312,10 +15322,10 @@
         <v>41</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>41</v>
@@ -15326,7 +15336,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15352,16 +15362,16 @@
         <v>73</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>41</v>
@@ -15386,13 +15396,13 @@
         <v>41</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>41</v>
@@ -15410,7 +15420,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15428,21 +15438,21 @@
         <v>41</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15465,19 +15475,19 @@
         <v>41</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>41</v>
@@ -15505,10 +15515,10 @@
         <v>77</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>41</v>
@@ -15526,7 +15536,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15544,10 +15554,10 @@
         <v>41</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>41</v>
@@ -15558,7 +15568,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15581,16 +15591,16 @@
         <v>41</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15640,7 +15650,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15649,7 +15659,7 @@
         <v>43</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>65</v>
@@ -15658,10 +15668,10 @@
         <v>41</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>41</v>
@@ -15672,7 +15682,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15698,10 +15708,10 @@
         <v>55</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15752,7 +15762,7 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -15770,7 +15780,7 @@
         <v>41</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
@@ -15784,11 +15794,11 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15807,16 +15817,16 @@
         <v>41</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -15854,10 +15864,10 @@
         <v>41</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC122" t="s" s="2">
         <v>41</v>
@@ -15866,7 +15876,7 @@
         <v>96</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -15878,13 +15888,13 @@
         <v>41</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
@@ -15898,7 +15908,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15924,13 +15934,13 @@
         <v>55</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -15980,7 +15990,7 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -15989,7 +15999,7 @@
         <v>53</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>65</v>
@@ -16012,7 +16022,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16038,13 +16048,13 @@
         <v>67</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16070,13 +16080,13 @@
         <v>41</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>41</v>
@@ -16094,7 +16104,7 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16126,7 +16136,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16149,16 +16159,16 @@
         <v>54</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16208,7 +16218,7 @@
         <v>41</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16226,7 +16236,7 @@
         <v>41</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>41</v>
@@ -16240,7 +16250,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16266,13 +16276,13 @@
         <v>55</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16322,7 +16332,7 @@
         <v>41</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16354,7 +16364,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16377,19 +16387,19 @@
         <v>41</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>41</v>
@@ -16417,10 +16427,10 @@
         <v>77</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>41</v>
@@ -16438,7 +16448,7 @@
         <v>41</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -16447,7 +16457,7 @@
         <v>53</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>65</v>
@@ -16456,10 +16466,10 @@
         <v>41</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>41</v>
@@ -16470,7 +16480,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16496,13 +16506,13 @@
         <v>41</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -16552,7 +16562,7 @@
         <v>41</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16561,7 +16571,7 @@
         <v>43</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>65</v>
@@ -16570,10 +16580,10 @@
         <v>41</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>41</v>
